--- a/wierd.xlsx
+++ b/wierd.xlsx
@@ -14,6 +14,9 @@
   <sheets>
     <sheet name="wierd" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">wierd!$A$1:$G$214</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
@@ -1202,17 +1205,7 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Vérification" xfId="13" builtinId="23" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="2">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="1">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1499,10 +1492,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G214"/>
+  <dimension ref="A1:G215"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView tabSelected="1" topLeftCell="A50" workbookViewId="0">
+      <selection activeCell="H62" sqref="H62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7065,6 +7058,12 @@
         <v>1</v>
       </c>
     </row>
+    <row r="215" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G215">
+        <f>SUM(G2:G214)</f>
+        <v>168</v>
+      </c>
+    </row>
   </sheetData>
   <sortState ref="A2:D214">
     <sortCondition ref="D2:D214"/>

--- a/wierd.xlsx
+++ b/wierd.xlsx
@@ -15,7 +15,7 @@
     <sheet name="wierd" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">wierd!$A$1:$G$214</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">wierd!$A$1:$G$215</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
 </workbook>
@@ -815,7 +815,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -995,6 +995,12 @@
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="10">
     <border>
@@ -1156,10 +1162,12 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="10" fontId="0" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20 % - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1494,8 +1502,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G215"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A50" workbookViewId="0">
-      <selection activeCell="H62" sqref="H62"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1572,28 +1580,28 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+    <row r="4" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="3">
         <v>10</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="3">
         <v>80</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D4" s="4">
         <v>0.125</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="3">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="3">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G4">
+      <c r="G4" s="3">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
@@ -7065,6 +7073,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:G215"/>
   <sortState ref="A2:D214">
     <sortCondition ref="D2:D214"/>
   </sortState>

--- a/wierd.xlsx
+++ b/wierd.xlsx
@@ -15,7 +15,7 @@
     <sheet name="wierd" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">wierd!$A$1:$G$215</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">wierd!$A$1:$G$1</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
 </workbook>
@@ -1162,12 +1162,13 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="10" fontId="0" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="0" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20 % - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1503,13 +1504,13 @@
   <dimension ref="A1:G215"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="60.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.7109375" customWidth="1"/>
     <col min="3" max="3" width="6.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8.140625" bestFit="1" customWidth="1"/>
   </cols>
@@ -1528,28 +1529,28 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="2" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="3">
         <v>6</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="3">
         <v>120</v>
       </c>
-      <c r="D2" s="1">
+      <c r="D2" s="5">
         <v>0.05</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="3">
         <f>IF((C2-B2)&gt;3,IF((C2-B2)&gt;0,1,0),0)</f>
         <v>1</v>
       </c>
-      <c r="F2">
+      <c r="F2" s="3">
         <f>IF((B2-C2)&gt;3,IF((B2-C2)&gt;0,1,0),0)</f>
         <v>0</v>
       </c>
-      <c r="G2">
+      <c r="G2" s="3">
         <f>E2+F2</f>
         <v>1</v>
       </c>
@@ -4258,28 +4259,28 @@
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A107" t="s">
+    <row r="107" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A107" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B107">
+      <c r="B107" s="3">
         <v>8</v>
       </c>
-      <c r="C107">
+      <c r="C107" s="3">
         <v>10</v>
       </c>
-      <c r="D107" s="1">
+      <c r="D107" s="5">
         <v>0.8</v>
       </c>
-      <c r="E107">
+      <c r="E107" s="3">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="F107">
+      <c r="F107" s="3">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="G107">
+      <c r="G107" s="3">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
@@ -5454,28 +5455,28 @@
         <v>1</v>
       </c>
     </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A153" t="s">
+    <row r="153" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A153" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B153">
+      <c r="B153" s="3">
         <v>38</v>
       </c>
-      <c r="C153">
+      <c r="C153" s="3">
         <v>40</v>
       </c>
-      <c r="D153" s="1">
+      <c r="D153" s="5">
         <v>0.95</v>
       </c>
-      <c r="E153">
+      <c r="E153" s="3">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="F153">
+      <c r="F153" s="3">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="G153">
+      <c r="G153" s="3">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
@@ -5558,28 +5559,28 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A157" t="s">
+    <row r="157" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A157" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B157">
+      <c r="B157" s="3">
         <v>110</v>
       </c>
-      <c r="C157">
+      <c r="C157" s="3">
         <v>115</v>
       </c>
-      <c r="D157" s="2">
+      <c r="D157" s="4">
         <v>0.95599999999999996</v>
       </c>
-      <c r="E157">
+      <c r="E157" s="3">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="F157">
+      <c r="F157" s="3">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="G157">
+      <c r="G157" s="3">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
@@ -6338,28 +6339,28 @@
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A187" t="s">
+    <row r="187" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A187" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="B187">
+      <c r="B187" s="3">
         <v>51</v>
       </c>
-      <c r="C187">
+      <c r="C187" s="3">
         <v>50</v>
       </c>
-      <c r="D187" s="1">
+      <c r="D187" s="5">
         <v>1.02</v>
       </c>
-      <c r="E187">
+      <c r="E187" s="3">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="F187">
+      <c r="F187" s="3">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="G187">
+      <c r="G187" s="3">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
@@ -6442,54 +6443,54 @@
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A191" t="s">
+    <row r="191" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A191" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="B191">
+      <c r="B191" s="3">
         <v>52</v>
       </c>
-      <c r="C191">
+      <c r="C191" s="3">
         <v>50</v>
       </c>
-      <c r="D191" s="1">
+      <c r="D191" s="5">
         <v>1.04</v>
       </c>
-      <c r="E191">
+      <c r="E191" s="3">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="F191">
+      <c r="F191" s="3">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="G191">
+      <c r="G191" s="3">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A192" t="s">
+    <row r="192" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A192" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="B192">
+      <c r="B192" s="3">
         <v>52</v>
       </c>
-      <c r="C192">
+      <c r="C192" s="3">
         <v>50</v>
       </c>
-      <c r="D192" s="1">
+      <c r="D192" s="5">
         <v>1.04</v>
       </c>
-      <c r="E192">
+      <c r="E192" s="3">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="F192">
+      <c r="F192" s="3">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="G192">
+      <c r="G192" s="3">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
@@ -7073,7 +7074,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G215"/>
+  <autoFilter ref="A1:G1"/>
   <sortState ref="A2:D214">
     <sortCondition ref="D2:D214"/>
   </sortState>
